--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf7-Fgfr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf7-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.5087224273235</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H2">
-        <v>22.5087224273235</v>
+        <v>71.364188</v>
       </c>
       <c r="I2">
-        <v>0.961956454466198</v>
+        <v>0.9523565551414847</v>
       </c>
       <c r="J2">
-        <v>0.961956454466198</v>
+        <v>0.9638182834836496</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.552684602533731</v>
+        <v>10.077153</v>
       </c>
       <c r="N2">
-        <v>9.552684602533731</v>
+        <v>20.154306</v>
       </c>
       <c r="O2">
-        <v>0.08903631199983512</v>
+        <v>0.08561976287781047</v>
       </c>
       <c r="P2">
-        <v>0.08903631199983512</v>
+        <v>0.06709546746404282</v>
       </c>
       <c r="Q2">
-        <v>215.0187261541989</v>
+        <v>239.715947065588</v>
       </c>
       <c r="R2">
-        <v>215.0187261541989</v>
+        <v>1438.295682393528</v>
       </c>
       <c r="S2">
-        <v>0.0856490550101076</v>
+        <v>0.08154054242634234</v>
       </c>
       <c r="T2">
-        <v>0.0856490550101076</v>
+        <v>0.06466783828072682</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.5087224273235</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H3">
-        <v>22.5087224273235</v>
+        <v>71.364188</v>
       </c>
       <c r="I3">
-        <v>0.961956454466198</v>
+        <v>0.9523565551414847</v>
       </c>
       <c r="J3">
-        <v>0.961956454466198</v>
+        <v>0.9638182834836496</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>52.5510556573628</v>
+        <v>56.16712533333333</v>
       </c>
       <c r="N3">
-        <v>52.5510556573628</v>
+        <v>168.501376</v>
       </c>
       <c r="O3">
-        <v>0.4898049482538784</v>
+        <v>0.4772197020892965</v>
       </c>
       <c r="P3">
-        <v>0.4898049482538784</v>
+        <v>0.560955985835208</v>
       </c>
       <c r="Q3">
-        <v>1182.857125054408</v>
+        <v>1336.107097235854</v>
       </c>
       <c r="R3">
-        <v>1182.857125054408</v>
+        <v>12024.96387512269</v>
       </c>
       <c r="S3">
-        <v>0.4711710314023005</v>
+        <v>0.454483311527408</v>
       </c>
       <c r="T3">
-        <v>0.4711710314023005</v>
+        <v>0.5406596353775687</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.5087224273235</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H4">
-        <v>22.5087224273235</v>
+        <v>71.364188</v>
       </c>
       <c r="I4">
-        <v>0.961956454466198</v>
+        <v>0.9523565551414847</v>
       </c>
       <c r="J4">
-        <v>0.961956454466198</v>
+        <v>0.9638182834836496</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.889687520140936</v>
+        <v>0.9207109999999999</v>
       </c>
       <c r="N4">
-        <v>0.889687520140936</v>
+        <v>2.762133</v>
       </c>
       <c r="O4">
-        <v>0.008292380510984035</v>
+        <v>0.007822750880034444</v>
       </c>
       <c r="P4">
-        <v>0.008292380510984035</v>
+        <v>0.009195385087080598</v>
       </c>
       <c r="Q4">
-        <v>20.02572943790612</v>
+        <v>21.90193096588933</v>
       </c>
       <c r="R4">
-        <v>20.02572943790612</v>
+        <v>197.117378693004</v>
       </c>
       <c r="S4">
-        <v>0.007976908955430802</v>
+        <v>0.007450048079839621</v>
       </c>
       <c r="T4">
-        <v>0.007976908955430802</v>
+        <v>0.008862680270601173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.5087224273235</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H5">
-        <v>22.5087224273235</v>
+        <v>71.364188</v>
       </c>
       <c r="I5">
-        <v>0.961956454466198</v>
+        <v>0.9523565551414847</v>
       </c>
       <c r="J5">
-        <v>0.961956454466198</v>
+        <v>0.9638182834836496</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.27656000284942</v>
+        <v>1.441214666666667</v>
       </c>
       <c r="N5">
-        <v>1.27656000284942</v>
+        <v>4.323644</v>
       </c>
       <c r="O5">
-        <v>0.01189824634951984</v>
+        <v>0.01224517063658978</v>
       </c>
       <c r="P5">
-        <v>0.01189824634951984</v>
+        <v>0.01439379333270538</v>
       </c>
       <c r="Q5">
-        <v>28.73373476596089</v>
+        <v>34.28370480678577</v>
       </c>
       <c r="R5">
-        <v>28.73373476596089</v>
+        <v>308.553343261072</v>
       </c>
       <c r="S5">
-        <v>0.01144559487274949</v>
+        <v>0.01166176852458231</v>
       </c>
       <c r="T5">
-        <v>0.01144559487274949</v>
+        <v>0.0138730011827465</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.5087224273235</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H6">
-        <v>22.5087224273235</v>
+        <v>71.364188</v>
       </c>
       <c r="I6">
-        <v>0.961956454466198</v>
+        <v>0.9523565551414847</v>
       </c>
       <c r="J6">
-        <v>0.961956454466198</v>
+        <v>0.9638182834836496</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.1299349819137</v>
+        <v>6.460321333333333</v>
       </c>
       <c r="N6">
-        <v>6.1299349819137</v>
+        <v>19.380964</v>
       </c>
       <c r="O6">
-        <v>0.05713438957710472</v>
+        <v>0.05488962811961477</v>
       </c>
       <c r="P6">
-        <v>0.05713438957710472</v>
+        <v>0.06452094353850663</v>
       </c>
       <c r="Q6">
-        <v>137.9770050054358</v>
+        <v>153.6785287241369</v>
       </c>
       <c r="R6">
-        <v>137.9770050054358</v>
+        <v>1383.106758517232</v>
       </c>
       <c r="S6">
-        <v>0.05496079482568215</v>
+        <v>0.05227449714899349</v>
       </c>
       <c r="T6">
-        <v>0.05496079482568215</v>
+        <v>0.06218646505002893</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.5087224273235</v>
+        <v>23.78806266666667</v>
       </c>
       <c r="H7">
-        <v>22.5087224273235</v>
+        <v>71.364188</v>
       </c>
       <c r="I7">
-        <v>0.961956454466198</v>
+        <v>0.9523565551414847</v>
       </c>
       <c r="J7">
-        <v>0.961956454466198</v>
+        <v>0.9638182834836496</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.8898378729875</v>
+        <v>42.6300515</v>
       </c>
       <c r="N7">
-        <v>36.8898378729875</v>
+        <v>85.260103</v>
       </c>
       <c r="O7">
-        <v>0.3438337233086778</v>
+        <v>0.362202985396654</v>
       </c>
       <c r="P7">
-        <v>0.3438337233086778</v>
+        <v>0.2838384247424566</v>
       </c>
       <c r="Q7">
-        <v>830.3431210720416</v>
+        <v>1014.086336565227</v>
       </c>
       <c r="R7">
-        <v>830.3431210720416</v>
+        <v>6084.518019391364</v>
       </c>
       <c r="S7">
-        <v>0.3307530693999274</v>
+        <v>0.3449463874343189</v>
       </c>
       <c r="T7">
-        <v>0.3307530693999274</v>
+        <v>0.2735686633219775</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.890177099593109</v>
+        <v>0.07917266666666667</v>
       </c>
       <c r="H8">
-        <v>0.890177099593109</v>
+        <v>0.237518</v>
       </c>
       <c r="I8">
-        <v>0.03804354553380195</v>
+        <v>0.003169682590154255</v>
       </c>
       <c r="J8">
-        <v>0.03804354553380195</v>
+        <v>0.003207830110201345</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.552684602533731</v>
+        <v>10.077153</v>
       </c>
       <c r="N8">
-        <v>9.552684602533731</v>
+        <v>20.154306</v>
       </c>
       <c r="O8">
-        <v>0.08903631199983512</v>
+        <v>0.08561976287781047</v>
       </c>
       <c r="P8">
-        <v>0.08903631199983512</v>
+        <v>0.06709546746404282</v>
       </c>
       <c r="Q8">
-        <v>8.503581072811228</v>
+        <v>0.7978350754179999</v>
       </c>
       <c r="R8">
-        <v>8.503581072811228</v>
+        <v>4.787010452508</v>
       </c>
       <c r="S8">
-        <v>0.003387256989727524</v>
+        <v>0.0002713874717669313</v>
       </c>
       <c r="T8">
-        <v>0.003387256989727524</v>
+        <v>0.0002152308607891912</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -974,49 +974,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.890177099593109</v>
+        <v>0.07917266666666667</v>
       </c>
       <c r="H9">
-        <v>0.890177099593109</v>
+        <v>0.237518</v>
       </c>
       <c r="I9">
-        <v>0.03804354553380195</v>
+        <v>0.003169682590154255</v>
       </c>
       <c r="J9">
-        <v>0.03804354553380195</v>
+        <v>0.003207830110201345</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>52.5510556573628</v>
+        <v>56.16712533333333</v>
       </c>
       <c r="N9">
-        <v>52.5510556573628</v>
+        <v>168.501376</v>
       </c>
       <c r="O9">
-        <v>0.4898049482538784</v>
+        <v>0.4772197020892965</v>
       </c>
       <c r="P9">
-        <v>0.4898049482538784</v>
+        <v>0.560955985835208</v>
       </c>
       <c r="Q9">
-        <v>46.77974630562726</v>
+        <v>4.446901091640889</v>
       </c>
       <c r="R9">
-        <v>46.77974630562726</v>
+        <v>40.022109824768</v>
       </c>
       <c r="S9">
-        <v>0.01863391685157793</v>
+        <v>0.001512634981391043</v>
       </c>
       <c r="T9">
-        <v>0.01863391685157793</v>
+        <v>0.001799451501859859</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.890177099593109</v>
+        <v>0.07917266666666667</v>
       </c>
       <c r="H10">
-        <v>0.890177099593109</v>
+        <v>0.237518</v>
       </c>
       <c r="I10">
-        <v>0.03804354553380195</v>
+        <v>0.003169682590154255</v>
       </c>
       <c r="J10">
-        <v>0.03804354553380195</v>
+        <v>0.003207830110201345</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.889687520140936</v>
+        <v>0.9207109999999999</v>
       </c>
       <c r="N10">
-        <v>0.889687520140936</v>
+        <v>2.762133</v>
       </c>
       <c r="O10">
-        <v>0.008292380510984035</v>
+        <v>0.007822750880034444</v>
       </c>
       <c r="P10">
-        <v>0.008292380510984035</v>
+        <v>0.009195385087080598</v>
       </c>
       <c r="Q10">
-        <v>0.7919794562232442</v>
+        <v>0.07289514509933333</v>
       </c>
       <c r="R10">
-        <v>0.7919794562232442</v>
+        <v>0.656056305894</v>
       </c>
       <c r="S10">
-        <v>0.000315471555553233</v>
+        <v>2.479563727155905E-05</v>
       </c>
       <c r="T10">
-        <v>0.000315471555553233</v>
+        <v>2.949723315723356E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.890177099593109</v>
+        <v>0.07917266666666667</v>
       </c>
       <c r="H11">
-        <v>0.890177099593109</v>
+        <v>0.237518</v>
       </c>
       <c r="I11">
-        <v>0.03804354553380195</v>
+        <v>0.003169682590154255</v>
       </c>
       <c r="J11">
-        <v>0.03804354553380195</v>
+        <v>0.003207830110201345</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.27656000284942</v>
+        <v>1.441214666666667</v>
       </c>
       <c r="N11">
-        <v>1.27656000284942</v>
+        <v>4.323644</v>
       </c>
       <c r="O11">
-        <v>0.01189824634951984</v>
+        <v>0.01224517063658978</v>
       </c>
       <c r="P11">
-        <v>0.01189824634951984</v>
+        <v>0.01439379333270538</v>
       </c>
       <c r="Q11">
-        <v>1.136364480793068</v>
+        <v>0.1141048083991111</v>
       </c>
       <c r="R11">
-        <v>1.136364480793068</v>
+        <v>1.026943275592</v>
       </c>
       <c r="S11">
-        <v>0.0004526514767703509</v>
+        <v>3.881330418026672E-05</v>
       </c>
       <c r="T11">
-        <v>0.0004526514767703509</v>
+        <v>4.617284365266768E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.890177099593109</v>
+        <v>0.07917266666666667</v>
       </c>
       <c r="H12">
-        <v>0.890177099593109</v>
+        <v>0.237518</v>
       </c>
       <c r="I12">
-        <v>0.03804354553380195</v>
+        <v>0.003169682590154255</v>
       </c>
       <c r="J12">
-        <v>0.03804354553380195</v>
+        <v>0.003207830110201345</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.1299349819137</v>
+        <v>6.460321333333333</v>
       </c>
       <c r="N12">
-        <v>6.1299349819137</v>
+        <v>19.380964</v>
       </c>
       <c r="O12">
-        <v>0.05713438957710472</v>
+        <v>0.05488962811961477</v>
       </c>
       <c r="P12">
-        <v>0.05713438957710472</v>
+        <v>0.06452094353850663</v>
       </c>
       <c r="Q12">
-        <v>5.456727742894275</v>
+        <v>0.5114808674835556</v>
       </c>
       <c r="R12">
-        <v>5.456727742894275</v>
+        <v>4.603327807352</v>
       </c>
       <c r="S12">
-        <v>0.002173594751422563</v>
+        <v>0.0001739826986307843</v>
       </c>
       <c r="T12">
-        <v>0.002173594751422563</v>
+        <v>0.0002069722254214225</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,805 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.07917266666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.237518</v>
+      </c>
+      <c r="I13">
+        <v>0.003169682590154255</v>
+      </c>
+      <c r="J13">
+        <v>0.003207830110201345</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>42.6300515</v>
+      </c>
+      <c r="N13">
+        <v>85.260103</v>
+      </c>
+      <c r="O13">
+        <v>0.362202985396654</v>
+      </c>
+      <c r="P13">
+        <v>0.2838384247424566</v>
+      </c>
+      <c r="Q13">
+        <v>3.375134857392334</v>
+      </c>
+      <c r="R13">
+        <v>20.250809144354</v>
+      </c>
+      <c r="S13">
+        <v>0.00114806849691367</v>
+      </c>
+      <c r="T13">
+        <v>0.0009105054453209706</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.2197513333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.659254</v>
+      </c>
+      <c r="I14">
+        <v>0.008797758175336408</v>
+      </c>
+      <c r="J14">
+        <v>0.008903640277666018</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>10.077153</v>
+      </c>
+      <c r="N14">
+        <v>20.154306</v>
+      </c>
+      <c r="O14">
+        <v>0.08561976287781047</v>
+      </c>
+      <c r="P14">
+        <v>0.06709546746404282</v>
+      </c>
+      <c r="Q14">
+        <v>2.214467807954</v>
+      </c>
+      <c r="R14">
+        <v>13.286806847724</v>
+      </c>
+      <c r="S14">
+        <v>0.0007532619688286217</v>
+      </c>
+      <c r="T14">
+        <v>0.0005973939065616815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.2197513333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.659254</v>
+      </c>
+      <c r="I15">
+        <v>0.008797758175336408</v>
+      </c>
+      <c r="J15">
+        <v>0.008903640277666018</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>56.16712533333333</v>
+      </c>
+      <c r="N15">
+        <v>168.501376</v>
+      </c>
+      <c r="O15">
+        <v>0.4772197020892965</v>
+      </c>
+      <c r="P15">
+        <v>0.560955985835208</v>
+      </c>
+      <c r="Q15">
+        <v>12.34280068150044</v>
+      </c>
+      <c r="R15">
+        <v>111.085206133504</v>
+      </c>
+      <c r="S15">
+        <v>0.004198463535487714</v>
+      </c>
+      <c r="T15">
+        <v>0.004994550309480206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.2197513333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.659254</v>
+      </c>
+      <c r="I16">
+        <v>0.008797758175336408</v>
+      </c>
+      <c r="J16">
+        <v>0.008903640277666018</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.9207109999999999</v>
+      </c>
+      <c r="N16">
+        <v>2.762133</v>
+      </c>
+      <c r="O16">
+        <v>0.007822750880034444</v>
+      </c>
+      <c r="P16">
+        <v>0.009195385087080598</v>
+      </c>
+      <c r="Q16">
+        <v>0.2023274698646667</v>
+      </c>
+      <c r="R16">
+        <v>1.820947228782</v>
+      </c>
+      <c r="S16">
+        <v>6.882267050844312E-05</v>
+      </c>
+      <c r="T16">
+        <v>8.187240102998025E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.2197513333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.659254</v>
+      </c>
+      <c r="I17">
+        <v>0.008797758175336408</v>
+      </c>
+      <c r="J17">
+        <v>0.008903640277666018</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.441214666666667</v>
+      </c>
+      <c r="N17">
+        <v>4.323644</v>
+      </c>
+      <c r="O17">
+        <v>0.01224517063658978</v>
+      </c>
+      <c r="P17">
+        <v>0.01439379333270538</v>
+      </c>
+      <c r="Q17">
+        <v>0.3167088446195555</v>
+      </c>
+      <c r="R17">
+        <v>2.850379601576</v>
+      </c>
+      <c r="S17">
+        <v>0.0001077300500764471</v>
+      </c>
+      <c r="T17">
+        <v>0.0001281571580654762</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.2197513333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.659254</v>
+      </c>
+      <c r="I18">
+        <v>0.008797758175336408</v>
+      </c>
+      <c r="J18">
+        <v>0.008903640277666018</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.460321333333333</v>
+      </c>
+      <c r="N18">
+        <v>19.380964</v>
+      </c>
+      <c r="O18">
+        <v>0.05488962811961477</v>
+      </c>
+      <c r="P18">
+        <v>0.06452094353850663</v>
+      </c>
+      <c r="Q18">
+        <v>1.419664226761778</v>
+      </c>
+      <c r="R18">
+        <v>12.776978040856</v>
+      </c>
+      <c r="S18">
+        <v>0.000482905674530516</v>
+      </c>
+      <c r="T18">
+        <v>0.0005744712716424625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.2197513333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.659254</v>
+      </c>
+      <c r="I19">
+        <v>0.008797758175336408</v>
+      </c>
+      <c r="J19">
+        <v>0.008903640277666018</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>42.6300515</v>
+      </c>
+      <c r="N19">
+        <v>85.260103</v>
+      </c>
+      <c r="O19">
+        <v>0.362202985396654</v>
+      </c>
+      <c r="P19">
+        <v>0.2838384247424566</v>
+      </c>
+      <c r="Q19">
+        <v>9.368010657193667</v>
+      </c>
+      <c r="R19">
+        <v>56.208063943162</v>
+      </c>
+      <c r="S19">
+        <v>0.003186574275904666</v>
+      </c>
+      <c r="T19">
+        <v>0.002527195230886211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.891119</v>
+      </c>
+      <c r="H20">
+        <v>1.782238</v>
+      </c>
+      <c r="I20">
+        <v>0.03567600409302456</v>
+      </c>
+      <c r="J20">
+        <v>0.024070246128483</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.077153</v>
+      </c>
+      <c r="N20">
+        <v>20.154306</v>
+      </c>
+      <c r="O20">
+        <v>0.08561976287781047</v>
+      </c>
+      <c r="P20">
+        <v>0.06709546746404282</v>
+      </c>
+      <c r="Q20">
+        <v>8.979942504206999</v>
+      </c>
+      <c r="R20">
+        <v>35.919770016828</v>
+      </c>
+      <c r="S20">
+        <v>0.003054571010872558</v>
+      </c>
+      <c r="T20">
+        <v>0.001615004415965134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.891119</v>
+      </c>
+      <c r="H21">
+        <v>1.782238</v>
+      </c>
+      <c r="I21">
+        <v>0.03567600409302456</v>
+      </c>
+      <c r="J21">
+        <v>0.024070246128483</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>56.16712533333333</v>
+      </c>
+      <c r="N21">
+        <v>168.501376</v>
+      </c>
+      <c r="O21">
+        <v>0.4772197020892965</v>
+      </c>
+      <c r="P21">
+        <v>0.560955985835208</v>
+      </c>
+      <c r="Q21">
+        <v>50.05159255991467</v>
+      </c>
+      <c r="R21">
+        <v>300.309555359488</v>
+      </c>
+      <c r="S21">
+        <v>0.0170252920450097</v>
+      </c>
+      <c r="T21">
+        <v>0.01350234864629928</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.891119</v>
+      </c>
+      <c r="H22">
+        <v>1.782238</v>
+      </c>
+      <c r="I22">
+        <v>0.03567600409302456</v>
+      </c>
+      <c r="J22">
+        <v>0.024070246128483</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.9207109999999999</v>
+      </c>
+      <c r="N22">
+        <v>2.762133</v>
+      </c>
+      <c r="O22">
+        <v>0.007822750880034444</v>
+      </c>
+      <c r="P22">
+        <v>0.009195385087080598</v>
+      </c>
+      <c r="Q22">
+        <v>0.820463065609</v>
+      </c>
+      <c r="R22">
+        <v>4.922778393654</v>
+      </c>
+      <c r="S22">
+        <v>0.0002790844924148203</v>
+      </c>
+      <c r="T22">
+        <v>0.000221335182292212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.890177099593109</v>
-      </c>
-      <c r="H13">
-        <v>0.890177099593109</v>
-      </c>
-      <c r="I13">
-        <v>0.03804354553380195</v>
-      </c>
-      <c r="J13">
-        <v>0.03804354553380195</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>36.8898378729875</v>
-      </c>
-      <c r="N13">
-        <v>36.8898378729875</v>
-      </c>
-      <c r="O13">
-        <v>0.3438337233086778</v>
-      </c>
-      <c r="P13">
-        <v>0.3438337233086778</v>
-      </c>
-      <c r="Q13">
-        <v>32.83848888223604</v>
-      </c>
-      <c r="R13">
-        <v>32.83848888223604</v>
-      </c>
-      <c r="S13">
-        <v>0.01308065390875034</v>
-      </c>
-      <c r="T13">
-        <v>0.01308065390875034</v>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.891119</v>
+      </c>
+      <c r="H23">
+        <v>1.782238</v>
+      </c>
+      <c r="I23">
+        <v>0.03567600409302456</v>
+      </c>
+      <c r="J23">
+        <v>0.024070246128483</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.441214666666667</v>
+      </c>
+      <c r="N23">
+        <v>4.323644</v>
+      </c>
+      <c r="O23">
+        <v>0.01224517063658978</v>
+      </c>
+      <c r="P23">
+        <v>0.01439379333270538</v>
+      </c>
+      <c r="Q23">
+        <v>1.284293772545333</v>
+      </c>
+      <c r="R23">
+        <v>7.705762635271999</v>
+      </c>
+      <c r="S23">
+        <v>0.0004368587577507612</v>
+      </c>
+      <c r="T23">
+        <v>0.000346462148240736</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.891119</v>
+      </c>
+      <c r="H24">
+        <v>1.782238</v>
+      </c>
+      <c r="I24">
+        <v>0.03567600409302456</v>
+      </c>
+      <c r="J24">
+        <v>0.024070246128483</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.460321333333333</v>
+      </c>
+      <c r="N24">
+        <v>19.380964</v>
+      </c>
+      <c r="O24">
+        <v>0.05488962811961477</v>
+      </c>
+      <c r="P24">
+        <v>0.06452094353850663</v>
+      </c>
+      <c r="Q24">
+        <v>5.756915086238666</v>
+      </c>
+      <c r="R24">
+        <v>34.541490517432</v>
+      </c>
+      <c r="S24">
+        <v>0.001958242597459972</v>
+      </c>
+      <c r="T24">
+        <v>0.001553034991413809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.891119</v>
+      </c>
+      <c r="H25">
+        <v>1.782238</v>
+      </c>
+      <c r="I25">
+        <v>0.03567600409302456</v>
+      </c>
+      <c r="J25">
+        <v>0.024070246128483</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>42.6300515</v>
+      </c>
+      <c r="N25">
+        <v>85.260103</v>
+      </c>
+      <c r="O25">
+        <v>0.362202985396654</v>
+      </c>
+      <c r="P25">
+        <v>0.2838384247424566</v>
+      </c>
+      <c r="Q25">
+        <v>37.9884488626285</v>
+      </c>
+      <c r="R25">
+        <v>151.953795450514</v>
+      </c>
+      <c r="S25">
+        <v>0.01292195518951674</v>
+      </c>
+      <c r="T25">
+        <v>0.006832060744271827</v>
       </c>
     </row>
   </sheetData>
